--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Absolute CD4 Count</t>
+    <t>Absolute CD4 Count and CD4 percentage</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:52:45+00:00</t>
+    <t>2023-02-25T15:21:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile is for recording the Patient's CD4 Count</t>
+    <t>This profile is used to record the Patient's CD4 count and CD4 percentage.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1391,10 +1391,7 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-cd4-percentage</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1404,8 +1401,8 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+    <t xml:space="preserve">Quantity
+</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1415,6 +1412,12 @@
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
   </si>
   <si>
     <t>Observation.component.dataAbsentReason</t>
@@ -1744,7 +1747,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1753,7 +1756,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.81640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1778,7 +1781,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -4469,10 +4472,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -7001,10 +7004,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7121,10 +7124,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7655,13 +7658,11 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="Y49" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y49" s="2"/>
+      <c r="Z49" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7697,7 +7698,7 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>209</v>
@@ -7714,10 +7715,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7725,7 +7726,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>92</v>
@@ -7740,16 +7741,16 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>275</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>277</v>
@@ -7789,19 +7790,17 @@
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7819,7 +7818,7 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>280</v>
@@ -7836,18 +7835,20 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>92</v>
@@ -7859,22 +7860,22 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>443</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7899,13 +7900,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7923,7 +7924,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7932,7 +7933,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7941,38 +7942,38 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -7987,16 +7988,16 @@
         <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>297</v>
+        <v>450</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>298</v>
+        <v>451</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>299</v>
+        <v>452</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8024,10 +8025,10 @@
         <v>290</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8045,16 +8046,16 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8063,19 +8064,19 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>306</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
@@ -8087,7 +8088,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8106,19 +8107,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>454</v>
+        <v>297</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>455</v>
+        <v>298</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8143,13 +8144,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8185,18 +8186,140 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AO53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP53" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-25T15:21:41+00:00</t>
+    <t>2023-02-25T15:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-25T15:28:03+00:00</t>
+    <t>2023-02-27T07:44:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Absolute CD4 Count and CD4 percentage</t>
+    <t>Absolute CD4 Count</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:44:43+00:00</t>
+    <t>2023-02-27T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile is used to record the Patient's CD4 count and CD4 percentage.</t>
+    <t>This profile is for recording the Patient's CD4 Count.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1391,7 +1391,10 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-cd4-percentage</t>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1401,8 +1404,8 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity
-</t>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1412,12 +1415,6 @@
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
   </si>
   <si>
     <t>Observation.component.dataAbsentReason</t>
@@ -1747,7 +1744,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP54"/>
+  <dimension ref="A1:AP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1756,7 +1753,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1781,7 +1778,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -7124,10 +7121,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7658,11 +7655,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7698,7 +7697,7 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>209</v>
@@ -7715,10 +7714,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7726,7 +7725,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>92</v>
@@ -7741,16 +7740,16 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>275</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>277</v>
@@ -7790,17 +7789,19 @@
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7818,7 +7819,7 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>280</v>
@@ -7835,20 +7836,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C51" t="s" s="2">
         <v>448</v>
       </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>92</v>
@@ -7860,22 +7859,22 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>443</v>
+        <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>275</v>
+        <v>450</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7900,13 +7899,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7924,7 +7923,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7933,7 +7932,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7942,38 +7941,38 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -7988,16 +7987,16 @@
         <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>450</v>
+        <v>297</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>451</v>
+        <v>298</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>452</v>
+        <v>299</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8025,10 +8024,10 @@
         <v>290</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8046,16 +8045,16 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8064,19 +8063,19 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>82</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53">
@@ -8088,7 +8087,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8107,19 +8106,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>297</v>
+        <v>454</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>298</v>
+        <v>455</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8144,13 +8143,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8186,140 +8185,18 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>304</v>
+        <v>360</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>305</v>
+        <v>361</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP54" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:08:58+00:00</t>
+    <t>2023-02-27T08:14:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
